--- a/local.xlsx
+++ b/local.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DellXPS_7\Documents\研究事務\水理公式集例題集の改訂\質問\5-4\mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DellXPS_7\Documents\研究事務\水理公式集例題集の改訂\質問\5-4\例題5-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECE7813-C0A4-4E1F-9790-8AC204564BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16D09EA-B5F2-46BF-ACC4-B04465DD2E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="700" windowWidth="14400" windowHeight="9130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1040" windowWidth="14400" windowHeight="9130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H-T曲線" sheetId="1" r:id="rId1"/>
-    <sheet name="T-H曲線" sheetId="3" r:id="rId2"/>
+    <sheet name="T-H曲線_p0-0-0" sheetId="3" r:id="rId2"/>
     <sheet name="T-H曲線_p1-0-0" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -866,18 +866,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,6 +883,18 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -8701,7 +8701,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'T-H曲線'!$H$2</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8724,7 +8724,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$G$4:$G$154</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$G$4:$G$154</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="151"/>
@@ -9186,7 +9186,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$H$4:$H$154</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$H$4:$H$154</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="151"/>
@@ -9658,7 +9658,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'T-H曲線'!$I$2</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9681,7 +9681,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$G$4:$G$154</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$G$4:$G$154</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="151"/>
@@ -10143,7 +10143,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$I$4:$I$154</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$I$4:$I$154</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="151"/>
@@ -10615,7 +10615,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'T-H曲線'!$J$2</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10638,7 +10638,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$G$4:$G$154</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$G$4:$G$154</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="151"/>
@@ -11100,7 +11100,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$J$4:$J$154</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$J$4:$J$154</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="151"/>
@@ -11572,7 +11572,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'T-H曲線'!$K$2</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11595,7 +11595,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$G$4:$G$154</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$G$4:$G$154</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="151"/>
@@ -12057,7 +12057,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$K$4:$K$154</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$K$4:$K$154</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="151"/>
@@ -12529,7 +12529,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'T-H曲線'!$L$2</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12552,7 +12552,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$G$4:$G$154</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$G$4:$G$154</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="151"/>
@@ -13014,7 +13014,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$L$4:$L$154</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$L$4:$L$154</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="151"/>
@@ -13486,7 +13486,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'T-H曲線'!$M$3</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13509,7 +13509,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$G$4:$G$114</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$G$4:$G$114</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="111"/>
@@ -13851,7 +13851,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$M$4:$M$114</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$M$4:$M$114</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="111"/>
@@ -14280,7 +14280,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$E$4:$E$482</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$E$4:$E$482</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="479"/>
@@ -15726,7 +15726,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'T-H曲線'!$D$4:$D$482</c:f>
+              <c:f>'T-H曲線_p0-0-0'!$D$4:$D$482</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="479"/>
@@ -43750,14 +43750,14 @@
       <c r="O21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12" t="s">
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S21" s="13"/>
+      <c r="S21" s="19"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
@@ -43807,15 +43807,15 @@
       <c r="O22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="10">
         <v>10.593</v>
       </c>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="16">
+      <c r="Q22" s="11"/>
+      <c r="R22" s="12">
         <f>$Q$20*P22^$S$20</f>
         <v>12.870589804543684</v>
       </c>
-      <c r="S22" s="16"/>
+      <c r="S22" s="12"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
@@ -43865,15 +43865,15 @@
       <c r="O23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="10">
         <v>11.172000000000001</v>
       </c>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="16">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="12">
         <f t="shared" ref="R23:R26" si="4">$Q$20*P23^$S$20</f>
         <v>13.189549084121237</v>
       </c>
-      <c r="S23" s="16"/>
+      <c r="S23" s="12"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
@@ -43923,15 +43923,15 @@
       <c r="O24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="10">
         <v>11.493</v>
       </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="16">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="12">
         <f t="shared" si="4"/>
         <v>13.362542178810116</v>
       </c>
-      <c r="S24" s="16"/>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
@@ -43981,15 +43981,15 @@
       <c r="O25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="10">
         <v>11.881</v>
       </c>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="16">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="12">
         <f t="shared" si="4"/>
         <v>13.568195734787112</v>
       </c>
-      <c r="S25" s="16"/>
+      <c r="S25" s="12"/>
     </row>
     <row r="26" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26">
@@ -44039,15 +44039,15 @@
       <c r="O26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="13">
         <v>12.382</v>
       </c>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="19">
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15">
         <f t="shared" si="4"/>
         <v>13.828449557239963</v>
       </c>
-      <c r="S26" s="19"/>
+      <c r="S26" s="15"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
@@ -44204,14 +44204,14 @@
       <c r="O29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="P29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12" t="s">
+      <c r="Q29" s="17"/>
+      <c r="R29" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S29" s="13"/>
+      <c r="S29" s="19"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
@@ -44261,15 +44261,15 @@
       <c r="O30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="10">
         <v>10.593</v>
       </c>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="16">
+      <c r="Q30" s="11"/>
+      <c r="R30" s="12">
         <f>$Q$28*P30^$S$28</f>
         <v>14.597412894553109</v>
       </c>
-      <c r="S30" s="16"/>
+      <c r="S30" s="12"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
@@ -44319,15 +44319,15 @@
       <c r="O31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="10">
         <v>11.172000000000001</v>
       </c>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="16">
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12">
         <f t="shared" ref="R31:R34" si="6">$Q$28*P31^$S$28</f>
         <v>15.095114927818241</v>
       </c>
-      <c r="S31" s="16"/>
+      <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
@@ -44377,15 +44377,15 @@
       <c r="O32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="10">
         <v>11.493</v>
       </c>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="16">
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12">
         <f t="shared" si="6"/>
         <v>15.366925511149953</v>
       </c>
-      <c r="S32" s="16"/>
+      <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
@@ -44435,15 +44435,15 @@
       <c r="O33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="10">
         <v>11.881</v>
       </c>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="16">
+      <c r="Q33" s="11"/>
+      <c r="R33" s="12">
         <f t="shared" si="6"/>
         <v>15.691748082263471</v>
       </c>
-      <c r="S33" s="16"/>
+      <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34">
@@ -44493,15 +44493,15 @@
       <c r="O34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P34" s="13">
         <v>12.382</v>
       </c>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="17">
+      <c r="Q34" s="14"/>
+      <c r="R34" s="13">
         <f t="shared" si="6"/>
         <v>16.105423291673709</v>
       </c>
-      <c r="S34" s="19"/>
+      <c r="S34" s="15"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
@@ -56749,6 +56749,23 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="R33:S33"/>
     <mergeCell ref="P34:Q34"/>
@@ -56759,23 +56776,6 @@
     <mergeCell ref="R31:S31"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="R32:S32"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57710,14 +57710,14 @@
       <c r="O21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12" t="s">
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S21" s="13"/>
+      <c r="S21" s="19"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
@@ -57767,15 +57767,15 @@
       <c r="O22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="10">
         <v>10.587999999999999</v>
       </c>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="16">
+      <c r="Q22" s="11"/>
+      <c r="R22" s="12">
         <f>$Q$20*P22^$S$20</f>
         <v>12.867794927731863</v>
       </c>
-      <c r="S22" s="16"/>
+      <c r="S22" s="12"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
@@ -57825,15 +57825,15 @@
       <c r="O23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="10">
         <v>11.17</v>
       </c>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="16">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="12">
         <f t="shared" ref="R23:R26" si="4">$Q$20*P23^$S$20</f>
         <v>13.188462889014875</v>
       </c>
-      <c r="S23" s="16"/>
+      <c r="S23" s="12"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
@@ -57883,15 +57883,15 @@
       <c r="O24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="10">
         <v>11.492000000000001</v>
       </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="16">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="12">
         <f t="shared" si="4"/>
         <v>13.36200733901093</v>
       </c>
-      <c r="S24" s="16"/>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
@@ -57941,15 +57941,15 @@
       <c r="O25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="10">
         <v>11.882</v>
       </c>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="16">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="12">
         <f t="shared" si="4"/>
         <v>13.568721046478613</v>
       </c>
-      <c r="S25" s="16"/>
+      <c r="S25" s="12"/>
     </row>
     <row r="26" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26">
@@ -57999,15 +57999,15 @@
       <c r="O26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="13">
         <v>12.385999999999999</v>
       </c>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="19">
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15">
         <f t="shared" si="4"/>
         <v>13.830504324499783</v>
       </c>
-      <c r="S26" s="19"/>
+      <c r="S26" s="15"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
@@ -58164,14 +58164,14 @@
       <c r="O29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="P29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12" t="s">
+      <c r="Q29" s="17"/>
+      <c r="R29" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S29" s="13"/>
+      <c r="S29" s="19"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
@@ -58221,15 +58221,15 @@
       <c r="O30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="10">
         <v>10.587999999999999</v>
       </c>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="16">
+      <c r="Q30" s="11"/>
+      <c r="R30" s="12">
         <f>$Q$28*P30^$S$28</f>
         <v>14.593071738440363</v>
       </c>
-      <c r="S30" s="16"/>
+      <c r="S30" s="12"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
@@ -58279,15 +58279,15 @@
       <c r="O31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="10">
         <v>11.17</v>
       </c>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="16">
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12">
         <f t="shared" ref="R31:R34" si="5">$Q$28*P31^$S$28</f>
         <v>15.09341241486</v>
       </c>
-      <c r="S31" s="16"/>
+      <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
@@ -58337,15 +58337,15 @@
       <c r="O32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="10">
         <v>11.492000000000001</v>
       </c>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="16">
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12">
         <f t="shared" si="5"/>
         <v>15.36608314458652</v>
       </c>
-      <c r="S32" s="16"/>
+      <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
@@ -58395,15 +58395,15 @@
       <c r="O33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="10">
         <v>11.882</v>
       </c>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="16">
+      <c r="Q33" s="11"/>
+      <c r="R33" s="12">
         <f t="shared" si="5"/>
         <v>15.69258013742424</v>
       </c>
-      <c r="S33" s="16"/>
+      <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34">
@@ -58453,15 +58453,15 @@
       <c r="O34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P34" s="13">
         <v>12.385999999999999</v>
       </c>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="17">
+      <c r="Q34" s="14"/>
+      <c r="R34" s="13">
         <f t="shared" si="5"/>
         <v>16.108700891535115</v>
       </c>
-      <c r="S34" s="19"/>
+      <c r="S34" s="15"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
@@ -63683,7 +63683,7 @@
         <v>14.4</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" ref="H148:L158" si="17">SQRT($G148/(9.8/2/PI())/H$2)</f>
+        <f t="shared" ref="H148:L154" si="17">SQRT($G148/(9.8/2/PI())/H$2)</f>
         <v>17.542743564796943</v>
       </c>
       <c r="I148" s="2">
@@ -70709,6 +70709,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="R34:S34"/>
     <mergeCell ref="P31:Q31"/>
@@ -70717,25 +70736,6 @@
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="R33:S33"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
